--- a/Mounts/DXF/quantity.xlsx
+++ b/Mounts/DXF/quantity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FS\E-BAJA 2025\CAD\EBaja_2025_assembly\Mounts\DXF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC5F7006-3420-47F0-93F8-2DD5308A1606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A56D069-B066-48C2-8031-ED6128D137DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{A378D509-4B4C-4FB9-9708-E674DF030647}"/>
   </bookViews>
@@ -35,10 +35,68 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Body panel_mounts.dxf</t>
+  </si>
+  <si>
+    <t>front_arms_upper_mount.DXF</t>
+  </si>
+  <si>
+    <t>front_arms_lower_mount.DXF</t>
+  </si>
+  <si>
+    <t>rear_tie_rod_mount.DXF</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>orded status</t>
+  </si>
+  <si>
+    <t>required_qty</t>
+  </si>
+  <si>
+    <t>order_qty( + 40%)</t>
+  </si>
+  <si>
+    <t>shock_front_upper_mount_1.DXF</t>
+  </si>
+  <si>
+    <t>shock_front_upper_mount_2.DXF</t>
+  </si>
+  <si>
+    <t>front_shock_lower_mount.DXF</t>
+  </si>
+  <si>
+    <t>Rear_shock_Upper_Mount-I.DXF</t>
+  </si>
+  <si>
+    <t>Rear_shock_Upper_Mount-II.DXF</t>
+  </si>
+  <si>
+    <t>Rear_shock_Upper_Mount-III.DXF</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -66,8 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +461,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8455E094-4A52-45D6-8C52-BBE7BC4101B2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <f xml:space="preserve"> _xlfn.CEILING.MATH(B2 * 1.3)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <f xml:space="preserve"> _xlfn.CEILING.MATH(B3 * 1.4)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C14" si="0" xml:space="preserve"> _xlfn.CEILING.MATH(B4 * 1.4)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>